--- a/a1_URLs_prodej_byty.xlsx
+++ b/a1_URLs_prodej_byty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+1/praha-hostivar-tenisova/1985963084</t>
+          <t>/detail/prodej/byt/1+kk/praha-vysocany-novovysocanska/2952332364</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/praha-cerny-most-/3547751500</t>
+          <t>/detail/prodej/byt/2+kk/prachatice-prachatice-ii-zlata-stezka/404296780</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/praha-brevnov-ve-stresovickach/1991025740</t>
+          <t>/detail/prodej/byt/2+1/praha-vokovice-jemenska/532886604</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/praha-praha-5-nadrazni/2485081164</t>
+          <t>/detail/prodej/byt/4+1/teplice-prosetice-proseticka/2833384524</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/praha-praha-5-nadrazni/2520901452</t>
+          <t>/detail/prodej/byt/4+1/ceske-budejovice-ceske-budejovice-2-k--chocholy/3754120268</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+1/vrchlabi-vrchlabi-u-nemocnice/1285936204</t>
+          <t>/detail/prodej/byt/3+kk/praha-karlin-breitfeldova/2137609292</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/hostivice-hostivice-za-zahradami/1360094284</t>
+          <t>/detail/prodej/byt/1+kk/praha-kosire-naskove/3418729820</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+1/praha-hostivar-u-pekaren/642017628</t>
+          <t>/detail/prodej/byt/4+kk/praha-liben-pivovarnicka/3596641356</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/plzen--vysoka/746325580</t>
+          <t>/detail/prodej/byt/3+kk/praha-zizkov-taboritska/716600396</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/plzen--vysoka/2860254796</t>
+          <t>/detail/prodej/byt/1+1/nupaky--/2142008396</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/plzen--vysoka/3880519244</t>
+          <t>/detail/prodej/byt/4+kk/unhost-unhost-karla-capka/2168747084</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/plzen--vysoka/728499788</t>
+          <t>/detail/prodej/byt/2+1/praha-zizkov-konevova--hartigova-/2468549708</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+kk/plzen--vysoka/1668023884</t>
+          <t>/detail/prodej/byt/3+kk/lesany--/2598859852</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/plzen--vysoka/2541487692</t>
+          <t>/detail/prodej/byt/1+kk/praha-liben-pivovarnicka/1496327244</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+kk/plzen--vysoka/2795308620</t>
+          <t>/detail/prodej/byt/1+1/praha-vinohrady-rubesova/1790776396</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/praha-dejvice-heinemannova/3936506956</t>
+          <t>/detail/prodej/byt/3+1/praha-stodulky-bronzova/2334352460</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/zruc-nad-sazavou-zruc-nad-sazavou-namesti-miru/1907745868</t>
+          <t>/detail/prodej/byt/2+1/praha-modrany-k-otocce/3512517708</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/praha-vinohrady-balbinova/2018096716</t>
+          <t>/detail/prodej/byt/4+1/praha-vinohrady-korunni/198669388</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/praha-vinohrady-balbinova/3360273996</t>
+          <t>/detail/prodej/byt/3+1/praha-cerny-most-generala-janouska/3757823052</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/zruc-nad-sazavou-zruc-nad-sazavou-namesti-miru/3501581388</t>
+          <t>/detail/prodej/byt/4+1/praha-vinohrady-rejskova/631469132</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+kk/praha-vinor-ceskodubska/2194854988</t>
+          <t>/detail/prodej/byt/1+1/mlada-boleslav-mlada-boleslav-iii-zaluzanska/1781662796</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/praha-vysocany-bratri-dohalskych/4139263052</t>
+          <t>/detail/prodej/byt/1+kk/teplice-trnovany-krusnohorska/3519042636</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/praha-cerny-most-vasatkova/1622475852</t>
+          <t>/detail/prodej/byt/3+kk/kladno-krocehlavy-/3036898380</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+kk/ceske-budejovice-ceske-budejovice-2-litvinovicka/33641548</t>
+          <t>/detail/prodej/byt/4+kk/kladno-krocehlavy-/1606317132</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+1/brno-kralovo-pole-bozetechova/2041009228</t>
+          <t>/detail/prodej/byt/3+kk/kladno-krocehlavy-/2813228108</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+1/praha-vinohrady-hollarovo-namesti/814765644</t>
+          <t>/detail/prodej/byt/3+kk/praha-jinonice-reporyjska/2254050380</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/praha-uhrineves-u-uhrineveske-obory/3480822860</t>
+          <t>/detail/prodej/byt/2+kk/kladno-krocehlavy-/508847948</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/praha-suchdol-suchdolske-namesti/843187276</t>
+          <t>/detail/prodej/byt/1+kk/praha-mala-strana-mostecka/1529378380</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+kk/praha-suchdol-suchdolske-namesti/1271179084</t>
+          <t>/detail/prodej/byt/4+kk/kladno-krocehlavy-/30615116</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/6-a-vice/praha-suchdol-suchdolske-namesti/1711473740</t>
+          <t>/detail/prodej/byt/2+kk/praha-jinonice-reporyjska/179971660</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/praha-suchdol-suchdolske-namesti/3320755276</t>
+          <t>/detail/prodej/byt/2+kk/praha-jinonice-reporyjska/682239564</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/4+kk/praha-suchdol-suchdolske-namesti/3369583692</t>
+          <t>/detail/prodej/byt/3+kk/praha-jinonice-reporyjska/3153733196</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/5+kk/praha-suchdol-suchdolske-namesti/3668165708</t>
+          <t>/detail/prodej/byt/3+1/praha-chodov-benkova/479016012</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+1/praha-zabehlice-strimelicka/3622138956</t>
+          <t>/detail/prodej/byt/2+kk/praha-holesovice-jatecni/723874892</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/praha-michle-hanusova/199660620</t>
+          <t>/detail/prodej/byt/3+kk/praha-vysocany-prokopka/1216727388</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+kk/praha-stresovice-na-petynce/508761932</t>
+          <t>/detail/prodej/byt/2+kk/praha-liben-na-zertvach/2405241932</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/1+kk/jirkov-jirkov-studentska/3215414348</t>
+          <t>/detail/prodej/byt/4+1/ostrava-hrabuvka-krakovska/825562188</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/2+kk/praha-zabehlice-velenovskeho/281273932</t>
+          <t>/detail/prodej/byt/3+1/novy-bydzov-novy-bydzov-husova-trida/1204470860</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/detail/prodej/byt/3+1/chodov-chodov-tovarni/2410107980</t>
+          <t>/detail/prodej/byt/3+1/praha-stodulky-neustupneho/1420305484</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,4387 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>/detail/prodej/byt/4+1/kladno-vrapice-vrapicka/2845366092</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/zatec-zatec-lipova/3113305932</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-letnany-nepomuckych/2065654860</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/ostrava-zabreh-jugoslavska/279779148</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-vysocany-pechmanovych/2535950684</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-uhrineves-karla-guta/152228940</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-zizkov-sudomerska/254506060</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-zizkov-krasova/2147816524</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-kbely-polaneckeho/3458013532</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/plzen-skvrnany-vojanova/2239030860</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kbely-polaneckeho/3366519884</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-nove-mesto-podskalska/2500486220</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/plzen-skvrnany-vojanova/3667256908</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/cvikov-cvikov-ii-zitavska/2503566412</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/atypicky/brno-zabrdovice-francouzska/4218754124</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/kladno-krocehlavy-generala-selnera/4254999628</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/kladno-krocehlavy-danska/950686796</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/brno-zabrdovice-francouzska/2037716044</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/brno-stare-brno-nove-sady/2518115404</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/brno-zabrdovice-francouzska/4269085772</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/bucovice-marefy-/951538764</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-michle-dekanska/3177796684</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/detrichov-detrichov-/146232396</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/bucovice-marefy-/2830586956</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/horovice-horovice-u-knizeci-cesty/1306166860</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/horovice-horovice-u-knizeci-cesty/3805972044</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/horovice-horovice-u-knizeci-cesty/3049948748</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vysocany-kolbenova/263849036</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vysocany-kolbenova/3015312460</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/sadska-sadska-rasinova/142103628</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/kladno-krocehlavy-generala-selnera/3367457868</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-kamyk-otradovicka/439113548</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-bubenec-na-vysinach/2628798556</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-dejvice-studentska/2450900044</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/karlovy-vary-karlovy-vary-foersterova/1251779660</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/karlovy-vary-karlovy-vary-foersterova/797987916</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/karlovy-vary-karlovy-vary-foersterova/904352844</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/kostelec-u-holesova-kostelec-u-holesova-/429478988</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-kbely-polaneckeho/3616146508</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-malesice-niederleho/4037748300</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-zizkov-krizkovskeho/2650887244</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-sobin-zeleticka/3547878476</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/brno-veveri-uvoz/88004172</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/hradec-kralove-prazske-predmesti-gocarova-trida/2959025228</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/brno-zidenice-prusanecka/3437241420</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-zabrdovice-prikop/2727950156</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-smichov-radlicka/1451373644</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-repy-vondrousova/2002023500</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/most-most-obrancu-miru/3701015628</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/svitavy-predmesti-/1975527244</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-bubenec-smeralova/1566452572</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/liberec-liberec-v-kristianov-8--brezna/383595596</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-horni-pocernice-/3566126156</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-holesovice-dobrovskeho/2035098700</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-horni-pocernice-khodlova/2014606412</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-horni-pocernice-khodlova/3675550796</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-horni-pocernice-khodlova/2333373516</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/atypicky/praha-horni-pocernice-khodlova/1984521292</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vrsovice-pod-stupni/2525914188</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/desna-desna-i-vyletni/2489017420</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-brevnov-mladeze/137401420</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-michle-hanusova/2370536524</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-krc-budejovicka/1982358604</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-troja-pod-havrankou/1024222284</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-zizkov-pod-lipami/1068979276</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-hodkovicky-nad-lesem/730403916</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-uhrineves-u-uhrineveske-obory/225756236</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-kbely-polaneckeho/3680950092</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-vysocany-pechmanovych/1136506444</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/liberec-liberec-xii-stare-pavlovice-simackova/548217932</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-vysocany-pechmanovych/4146410572</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kbely-polaneckeho/2657539916</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-habova/655475788</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/ceska-lipa-ceska-lipa-jizni/693199948</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/libcice-nad-vltavou--pod-hlinikem/3776780636</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-malesice-pocernicka/1612383308</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/blansko--/3936806732</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/kladno-kladno-vaclava-rabase/2503242828</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-ujezd-nad-lesy-zehusicka/3628663884</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-troja-pod-hrachovkou/3129526092</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-troja-pod-hrachovkou/3264792396</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kamyk-zimova/3550754636</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/smecno-smecno-svinarovska/1618281548</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/ostrava-vyskovice-k-jezeru/119739468</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-kamyk-zimova/2192848716</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-liben-brezenska/1678402636</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-smichov-podbelohorska/2724661068</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-troja-pod-hrachovkou/3481163596</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-troja-pod-hrachovkou/1036440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-kamyk-zimova/3908813900</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-strasnice-pocernicka/2187130444</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-kamyk-zimova/3153839180</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kamyk-zimova/2513159244</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-smichov-podbelohorska/4198221388</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-kamyk-zimova/3799630924</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-troja-pod-hrachovkou/1001965388</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-dolni-mecholupy-na-slavikove/116409932</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kamyk-zimova/3857302604</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kamyk-zimova/199869516</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-troja-pod-hrachovkou/2932393804</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-troja-pod-hrachovkou/2124990284</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-kamyk-zimova/3606692940</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/atypicky/praha-smichov-podbelohorska/2759787596</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/atypicky/praha-smichov-podbelohorska/3598648396</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/novy-bor-novy-bor-svojsikova/3224093772</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/6-a-vice/zdiby-zdiby-prazska/4115735628</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-modrany-u-sporitelny/1567020876</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/hyskov-hyskov-u-statku/481776716</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/kostomlaty-pod-milesovkou-kostomlaty-pod-milesovkou-svetecka/2054685772</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/vseruby-vseruby-/331884364</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-cimice-krivenicka/836654156</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-vinohrady-kourimska/3567154252</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-miskovice-na-kacence/18880076</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-vysocany-nemocnicni/1294799948</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/usti-nad-labem-bukov-dukelskych-hrdinu/3595654220</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-praha-5-nadrazni/2660910668</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/plzen-skvrnany-vojanova/3279283276</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-habova/1695663180</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kbely-sedlarova/1684042828</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-holesovice-v-haji/898962508</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/kladno-krocehlavy-generala-selnera/3532223564</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-cerny-most-ciglerova/4060042316</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-stodulky-volutova/2507756620</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/modrice-modrice-popovicka/3954209868</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/otvovice-otvovice-/2059674700</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/otvovice-otvovice-/3099862092</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/otvovice-otvovice-/2765366348</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/otvovice-otvovice-/886318156</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/otvovice-otvovice-/1892951116</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/otvovice-otvovice-/550773836</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/otvovice-otvovice-/2211718220</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/otvovice-otvovice-/595289164</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/otvovice-otvovice-/2841338956</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/otvovice-otvovice-/3744162892</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/otvovice-otvovice-/2604360780</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha--prosecka/3567936588</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-prosek-prosecka/816473164</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-prosek-prosecka/229270604</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-prosek-prosecka/2997511244</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vysocany-vysocanska/3497616460</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-vysocany-vysocanska/863593548</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vysocany-vysocanska/494494796</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-vysocany-cerpadlova/511272012</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/cerna-v-posumavi-cerna-v-posumavi-/2689164364</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/karlovy-vary-karlovy-vary-sumavska/743007308</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-zlicin-sazovicka/524903500</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-zizkov-olgy-havlove/3460916300</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-zizkov-rixdorfska/2106418252</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vysocany-vysocanska/4012528716</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/velke-karlovice--/548885580</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/1455830092</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/1405498444</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/1925592140</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-armady/2132161612</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/4240847948</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/2438804556</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-armady/3780981836</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-armady/912077900</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/1448948812</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/801518668</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/4190516300</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/969290828</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/684078156</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/783225932</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-armady/4133303372</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-armady/3502183500</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/968823884</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/1522472012</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-stodulky-armady/2223969356</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/4104066124</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/3600749644</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-armady/2711557196</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/usti-nad-labem-klise-klisska/2377806924</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/hradec-kralove-hradec-kralove-okruzni/3366725452</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/lisany-lisany-rakovnicka/2427933772</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/cernosice-cernosice-komenskeho/1380213836</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/ostrava-marianske-hory-hudebni/3478971468</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/opava-predmesti-vojanova/2868315212</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-hostivar-horolezecka/316998732</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-ujezd-u-pruhonic-formanska/1288201292</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-horni-pocernice-bozanovska/2352895052</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/most-most-josefa-skupy/2606838860</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vinohrady-chodska/1355355212</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-bubenec-cs--armady/1487738972</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/nehvizdy--/1236366924</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/novy-bor-novy-bor-palackeho/2835817548</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/krupka-marsov-karla-capka/3951494220</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/krupka-marsov-dukelskych-hrdinu/2543133772</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-haje-hlavateho/355562572</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/usti-nad-orlici-usti-nad-orlici-pricna/587883596</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/usti-nad-labem-nestemice-sibirska/1971127372</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/karvina-hranice-csl--armady/3507422284</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/ostrava-hrabuvka-cholevova/4017710156</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/frydek-mistek-mistek-anenska/115737676</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/jachymov-jachymov-husova/280368204</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/pribor-pribor-frenstatska/1602835532</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-jinonice-pod-stolovou-horou/625030220</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-josefov-siroka/4273218636</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-smichov-ostrovskeho/3127866444</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-holesovice-v-pristavu/778728524</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-smichov-ostrovskeho/3059815500</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-vinohrady-kolinska/1553994828</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/liberec-liberec-vi-rochlice-nam--kyjevske/4105655372</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/mezibori-mezibori-mirova/364336204</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-dolni-mecholupy-kryspinova/1706513484</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-holesovice-dukelskych-hrdinu/3454997580</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/dobrichovice-dobrichovice-na-vyhlidce/697746508</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/5+1/revnice-revnice-v-luhu/2396374604</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/teplice-trnovany-fugnerova/715609164</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-hostivar-tenisova/1985963084</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-cerny-most-/3547751500</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-brevnov-ve-stresovickach/1991025740</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-praha-5-nadrazni/2485081164</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-praha-5-nadrazni/2520901452</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/vrchlabi-vrchlabi-u-nemocnice/1285936204</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/hostivice-hostivice-za-zahradami/1360094284</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-hostivar-u-pekaren/642017628</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/plzen--vysoka/746325580</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/plzen--vysoka/2860254796</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/plzen--vysoka/3880519244</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/plzen--vysoka/728499788</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/plzen--vysoka/1668023884</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/plzen--vysoka/2541487692</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/plzen--vysoka/2795308620</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-dejvice-heinemannova/3936506956</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/zruc-nad-sazavou-zruc-nad-sazavou-namesti-miru/1907745868</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-vinohrady-balbinova/2018096716</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vinohrady-balbinova/3360273996</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/zruc-nad-sazavou-zruc-nad-sazavou-namesti-miru/3501581388</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-vinor-ceskodubska/2194854988</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-vysocany-bratri-dohalskych/4139263052</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-cerny-most-vasatkova/1622475852</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/ceske-budejovice-ceske-budejovice-2-litvinovicka/33641548</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/brno-kralovo-pole-bozetechova/2041009228</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-vinohrady-hollarovo-namesti/814765644</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-uhrineves-u-uhrineveske-obory/3480822860</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-suchdol-suchdolske-namesti/843187276</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-suchdol-suchdolske-namesti/1271179084</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/6-a-vice/praha-suchdol-suchdolske-namesti/1711473740</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-suchdol-suchdolske-namesti/3320755276</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-suchdol-suchdolske-namesti/3369583692</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/5+kk/praha-suchdol-suchdolske-namesti/3668165708</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-zabehlice-strimelicka/3622138956</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-michle-hanusova/199660620</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-stresovice-na-petynce/508761932</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/jirkov-jirkov-studentska/3215414348</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-zabehlice-velenovskeho/281273932</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/chodov-chodov-tovarni/2410107980</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
           <t>/detail/prodej/byt/5+kk/praha-dejvice-/3707876428</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/pardubice-ohrazenice-u-sportovni-skoly/295789644</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/karvina-raj-kosmonautu/20993100</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/ostrava-moravska-ostrava-u-parku/4255601740</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/ostrava-hrabuvka-josefa-kotase/2088834124</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/ostrava-hrabuvka-tlapakova/517493836</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/brno-zabovresky-dunajevskeho/264660044</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-karlin-sokolovska/2723022668</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-karlin-sokolovska/3276670796</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-smichov-kobrova/1940195148</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-praha-5-pechlatova/2185954380</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/praha-hlubocepy-na-zlichove/2449745740</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-lipence-ceskeho-cerveneho-krize/2794767436</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-zizkov-kristanova/2973848652</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/kolin-kolin-ii-krcinova/3184882764</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-hloubetin-modreho/122319948</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-malesice-pocernicka/1309307980</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-praha-5-pechlatova/1659569228</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/praha-hlubocepy-na-zlichove/3449517132</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/praha-nove-mesto-gorazdova/102590028</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/karlovy-vary-drahovice-vychodni/312955980</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/benesov-nad-ploucnici-benesov-nad-ploucnici-sidliste/437802060</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/rokycany-nove-mesto-prazska/1028609100</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-zizkov-slavikova/4179383372</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-holesovice-umelecka/118584396</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-nusle-lumirova/3158075740</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-praha-5-janackovo-nabrezi/3600970828</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-vinohrady-v-horni-stromce/3114308684</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/5+kk/praha-vrsovice-kodanska/1457558604</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-zlicin-miloticka/2251564108</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/opava-predmesti-englisova/3054974028</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/blatna-blatna-k-jatkam/3819394124</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/beroun-beroun-mesto-okruzni/162145356</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stresovice-na-petynce/4254275404</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/karlovy-vary-karlovy-vary-krizikova/2538918988</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/karlovy-vary-karlovy-vary-dr--davida-bechera/2729727564</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-liben-u-slovanky/3284579916</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/5+kk/praha-holesovice-bubenska/3597334348</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/stare-buky-prostredni-stare-buky-/4037497932</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/brno-zidenice-valticka/1610445900</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/brno-zidenice-velkopavlovicka/1271882828</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-uhrineves-oty-bubenicka/1425392716</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-uhrineves-namesti-protifasistickych-bojovniku/4231013452</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-kolovraty-mladotova/1346008140</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-horni-mecholupy-hornomecholupska/4203480140</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-uhrineves-ke-krizi/917591116</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/milovice-milovice-letecka/2726782028</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/ostrava-hrabuvka-dr--martinka/3086836812</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/frydek-mistek-frydek-/2980533324</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-zizkov-jeseniova/3211752524</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/karlovy-vary-drahovice-vitezna/3834467404</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/karlovy-vary-karlovy-vary-foersterova/1479365708</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-hostivar-strasnicka/2040230988</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-smichov-radlicka/2376393804</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/kamenice-ladvi-benesovska/2953008204</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/slany-slany-trebizskeho/1561752652</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-smichov-holubova/3359384652</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/lipno-nad-vltavou-lipno-nad-vltavou-/367461452</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-liben-novakovych/2251449420</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-cerny-most-bryksova/2445224540</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-cerny-most-bryksova/1786714716</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-cerny-most-/1311555164</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/celakovice-celakovice-delnicka/2085312332</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/nehvizdy--/3394835532</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-praha-5-pechlatova/317391948</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/karlovy-vary-karlovy-vary-foersterova/2821542988</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/uvaly-uvaly-skvorecka/4144698444</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/karlovy-vary-karlovy-vary-foersterova/1311593548</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-bubenec-na-marne/2523100236</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-vokovice-nobelova/3765527628</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-zizkov-olsanska/4032853068</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/blazovice-blazovice-nadrazni/529484</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/mlada-boleslav-mlada-boleslav-ii-bozeny-nemcove/1410872396</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/praha-hostivar-u-pekaren/2453956956</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-hostivar-u-pekaren/2693624908</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/kadan-kadan-budovatelu/1448506444</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-liben-novakovych/4134040652</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/most-most-tr--budovatelu/346510412</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-stodulky-prusikova/1572103244</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/chomutov-chomutov-zahradni/2225558604</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/karlovy-vary-karlovy-vary-foersterova/2653770828</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/karlovy-vary-karlovy-vary-foersterova/4163720268</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-kobylisy-chotovicka/3819332684</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/soutice-soutice-/919630924</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/roztoky-roztoky-masarykova/1575048268</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/jinocany-jinocany-miresicka/3073365068</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/frydek-mistek-frydek-cihelni/1917609036</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/trutnov-kryblice-maxima-gorkeho/2918667340</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/5+kk/praha-vinohrady-lucemburska/1797207628</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-vinohrady-lucemburska/1089418828</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-bohunice-ukrajinska/4208415820</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-bubenec-na-vysinach/2142259292</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-vinohrady-kolinska/2050651212</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/plzen-vychodni-predmesti-bozkovska/1315292236</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-nove-mesto-truhlarska/3014239820</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-nove-mesto-na-rybnicku/1777689676</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-branik-nad-malym-mytem/1501803596</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-holesovice-veletrzni/1861772364</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-smichov-holeckova/3842431836</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/praha-bohnice-zelenohorska/894653516</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/olomouc-nove-sady-jakoubka-ze-stribra/2024236108</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-stodulky-petrzilkova/2851513420</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/praha-dejvice-na-spitalce/430549852</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-karlin-sokolovska/3712878412</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-dablice-u-spoju/1542649420</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-kobylisy-brezineveska/656827468</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/plzen-skvrnany-vojanova/728032844</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-karlin-sokolovska/2421032780</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-holesovice-ortenovo-namesti/3600569420</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/kolin-kolin-ii-krcinova/416052300</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-cakovice-marty-krasove/3490272332</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/brno-cerna-pole-antonina-slavika/224545116</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-modrany-soukalova/2728481868</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-holesovice-milady-horakove/3503711308</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-cakovice-radbuzska/2066753356</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-praha-dolni-mecholupy-/2269992012</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-horni-mecholupy-milanska/1128723532</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/zlin-zlin-javorova/1530664012</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/pec-pod-snezkou-velka-upa-/2291390028</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>1411</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-prosek-lovosicka/4184429644</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-kamyk-zarubova/3973669964</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-cholupice-kestranska/1310217292</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>1422</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-chodov-klapalkova/2706376268</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/ostrava-poruba-jana-soupala/401626188</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/vsetin-vsetin-stepanska/3436663884</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-zlicin-sazovicka/423588940</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-nove-mesto-halkova/3159712844</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/praha-repy-vondrousova/3609031756</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-vysocany-cerpadlova/2077234252</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>1446</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/horomerice-horomerice-komenskeho/2728683340</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/horni-briza-horni-briza-druzstevni/2845799500</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/decin-decin-iv-podmokly-divisova/407508044</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/hradec-kralove-hradec-kralove-karla-hynka-machy/4178928716</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/liberec-liberec--neclenene-mesto--svermova/1615677004</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/liberec-liberec--neclenene-mesto--svermova/2579437388</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>1467</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/liberec-liberec--neclenene-mesto--svermova/2816415564</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-liben-konselska/1503852364</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>1474</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-nove-mesto-nekazanka/176436300</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>1476</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-dejvice-studentska/307651660</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/mlada-boleslav-mlada-boleslav-ii-tr--vaclava-klementa/4092527692</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-veleslavin-marikova/3841872972</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-dejvice-patanka/3930063948</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/ostrava-vyskovice-stankova/171398220</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>1494</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-bohnice-zelenohorska/3808392268</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/ostrava-moravska-ostrava-a-privoz-nadrazni/2859213900</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/vsetin-vsetin-jiraskova/862413900</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/beroun-beroun-mesto-okruzni/1548371788</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>1508</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-smichov-podbelohorska/1121408076</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>1511</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/praha-stodulky-melodicka/3837985868</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>1515</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-praha-4-druzstevni-ochoz/867062860</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-zizkov-borivojova/3592406092</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-stodulky-borovanskeho/1981903948</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>1526</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/hradec-kralove-novy-hradec-kralove-trida-edvarda-benese/2468238412</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/nehvizdy-nehvizdy-gabcikova/2765268812</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-holesovice-v-haji/1567737676</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>1536</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/hradec-kralove-kukleny-/1828886348</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-lhotka-miroticka/4076454988</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>1543</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/most-most-julia-fucika/3228877900</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-smichov-/3546866764</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/marianske-lazne-marianske-lazne-ruska/520537164</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+1/praha-cakovice-danielova/1370604620</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-dablice-u-spoju/2385785932</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/brno-zabrdovice-/2837259340</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-stary-liskovec-valasska/733045836</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-zizkov-kubelikova/1521054796</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-horni-herspice-sokolova/3144819788</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/atypicky/praha-stodulky-seydlerova/3279234124</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-zabrdovice-cejl/3841811532</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/obristvi--a--polivky/1988260940</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>1585</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/praha-bohnice-vratislavska/2536793164</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/liberec-liberec-vi-rochlice-dukelska/1624724556</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/5+1/ricany-ricany-jizerska/3421983820</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-stodulky-kurzova/4277347404</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+1/praha-krc-hurbanova/1546155084</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-prosek-vysocanska/2578273356</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-cerna-pole-drobneho/2588963916</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-bubenec-narodni-obrany/995128396</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-holesovice-osadni/189822028</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-hloubetin-saarinenova/4216353868</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+1/praha-mala-strana-karmelitska/1750103116</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>1624</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/hostenice-hostenice-/1181783116</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>1627</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/4+kk/hostenice-hostenice-/2969401436</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/hostenice-hostenice-/4159535196</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+kk/horni-becva-horni-becva-/2590013260</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-michle-u-botice/899896396</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/praha-podoli-jeremenkova/2581222476</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/kladno-kladno-podebradova/4013053004</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>1648</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/1+kk/praha-smichov-graficka/1554953292</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>1652</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/3+1/praha-motol-brdlikova/2121749580</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>1655</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/atypicky/praha-karlin-kubova/3930015564</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>1659</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>/detail/prodej/byt/2+kk/brno-reckovice-kralovka/1423889484</t>
         </is>
       </c>
     </row>
